--- a/projet capstone/results/tables/anomaly_A1_global.xlsx
+++ b/projet capstone/results/tables/anomaly_A1_global.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,16 +483,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0007372267508919926</v>
+        <v>0.0007417590480215013</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0278839539765015</v>
+        <v>0.02791327872616079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4456219806763285</v>
+        <v>0.4998952265322383</v>
       </c>
       <c r="F2" t="n">
-        <v>33120</v>
+        <v>33057</v>
       </c>
     </row>
     <row r="3">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001421135525472816</v>
+        <v>0.001425599175844714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02737063294492026</v>
+        <v>0.02739924426249444</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4996678743961352</v>
+        <v>0.4864314425136891</v>
       </c>
       <c r="F3" t="n">
-        <v>33120</v>
+        <v>33057</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.00109758656585266</v>
+        <v>0.001100451205830323</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02884999418440961</v>
+        <v>0.02887899612044406</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4865036231884058</v>
+        <v>0.4826199068227452</v>
       </c>
       <c r="F4" t="n">
-        <v>33120</v>
+        <v>33058</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0004855917410804968</v>
+        <v>0.0004865181101752538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02990538870021477</v>
+        <v>0.02993613248699877</v>
       </c>
       <c r="E5" t="n">
-        <v>0.482518115942029</v>
+        <v>0.480782647206938</v>
       </c>
       <c r="F5" t="n">
-        <v>33120</v>
+        <v>33058</v>
       </c>
     </row>
     <row r="6">
@@ -571,16 +571,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0008742802328011579</v>
+        <v>0.0008749186405867679</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02836659059015224</v>
+        <v>0.02839125587014159</v>
       </c>
       <c r="E6" t="n">
-        <v>0.48021712907117</v>
+        <v>0.4452828866115085</v>
       </c>
       <c r="F6" t="n">
-        <v>33120</v>
+        <v>33059</v>
       </c>
     </row>
   </sheetData>
